--- a/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q1_Export.xlsx
+++ b/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q1_Export.xlsx
@@ -51,7 +51,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -167,12 +167,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
       <bottom>
         <color rgb="FF000000"/>
       </bottom>
@@ -212,9 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -23903,7 +23895,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -23911,7 +23903,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v/>
+      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -24081,105 +24075,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
+      <c r="AO2" t="n">
+        <v/>
+      </c>
+      <c r="AP2" t="n">
+        <v/>
+      </c>
+      <c r="AQ2" t="n">
+        <v/>
+      </c>
       <c r="AR2" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
+      <c r="AS2" t="n">
+        <v/>
+      </c>
+      <c r="AT2" t="n">
+        <v/>
+      </c>
+      <c r="AU2" t="n">
+        <v/>
+      </c>
       <c r="AV2" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
+      <c r="AW2" t="n">
+        <v/>
+      </c>
+      <c r="AX2" t="n">
+        <v/>
+      </c>
+      <c r="AY2" t="n">
+        <v/>
+      </c>
       <c r="AZ2" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
+      <c r="BA2" t="n">
+        <v/>
+      </c>
+      <c r="BB2" t="n">
+        <v/>
+      </c>
+      <c r="BC2" t="n">
+        <v/>
+      </c>
       <c r="BD2" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="inlineStr"/>
+      <c r="BE2" t="n">
+        <v/>
+      </c>
+      <c r="BF2" t="n">
+        <v/>
+      </c>
+      <c r="BG2" t="n">
+        <v/>
+      </c>
       <c r="BH2" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
+      <c r="BI2" t="n">
+        <v/>
+      </c>
+      <c r="BJ2" t="n">
+        <v/>
+      </c>
+      <c r="BK2" t="n">
+        <v/>
+      </c>
       <c r="BL2" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
-      <c r="BO2" t="inlineStr"/>
+      <c r="BM2" t="n">
+        <v/>
+      </c>
+      <c r="BN2" t="n">
+        <v/>
+      </c>
+      <c r="BO2" t="n">
+        <v/>
+      </c>
       <c r="BP2" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ2" t="inlineStr"/>
-      <c r="BR2" t="inlineStr"/>
-      <c r="BS2" t="inlineStr"/>
+      <c r="BQ2" t="n">
+        <v/>
+      </c>
+      <c r="BR2" t="n">
+        <v/>
+      </c>
+      <c r="BS2" t="n">
+        <v/>
+      </c>
       <c r="BT2" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU2" t="inlineStr"/>
-      <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr"/>
+      <c r="BU2" t="n">
+        <v/>
+      </c>
+      <c r="BV2" t="n">
+        <v/>
+      </c>
+      <c r="BW2" t="n">
+        <v/>
+      </c>
       <c r="BX2" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY2" t="inlineStr"/>
-      <c r="BZ2" t="inlineStr"/>
-      <c r="CA2" t="inlineStr"/>
+      <c r="BY2" t="n">
+        <v/>
+      </c>
+      <c r="BZ2" t="n">
+        <v/>
+      </c>
+      <c r="CA2" t="n">
+        <v/>
+      </c>
       <c r="CB2" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CC2" t="inlineStr"/>
-      <c r="CD2" t="inlineStr"/>
-      <c r="CE2" t="inlineStr"/>
+      <c r="CC2" t="n">
+        <v/>
+      </c>
+      <c r="CD2" t="n">
+        <v/>
+      </c>
+      <c r="CE2" t="n">
+        <v/>
+      </c>
       <c r="CF2" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG2" t="inlineStr"/>
-      <c r="CH2" t="inlineStr"/>
-      <c r="CI2" t="inlineStr"/>
+      <c r="CG2" t="n">
+        <v/>
+      </c>
+      <c r="CH2" t="n">
+        <v/>
+      </c>
+      <c r="CI2" t="n">
+        <v/>
+      </c>
       <c r="CJ2" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CK2" t="inlineStr"/>
-      <c r="CL2" t="inlineStr"/>
-      <c r="CM2" t="inlineStr"/>
+      <c r="CK2" t="n">
+        <v/>
+      </c>
+      <c r="CL2" t="n">
+        <v/>
+      </c>
+      <c r="CM2" t="n">
+        <v/>
+      </c>
       <c r="CN2" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -24197,7 +24269,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24205,7 +24277,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v/>
+      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -24375,105 +24449,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
+      <c r="AO3" t="n">
+        <v/>
+      </c>
+      <c r="AP3" t="n">
+        <v/>
+      </c>
+      <c r="AQ3" t="n">
+        <v/>
+      </c>
       <c r="AR3" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
+      <c r="AS3" t="n">
+        <v/>
+      </c>
+      <c r="AT3" t="n">
+        <v/>
+      </c>
+      <c r="AU3" t="n">
+        <v/>
+      </c>
       <c r="AV3" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
+      <c r="AW3" t="n">
+        <v/>
+      </c>
+      <c r="AX3" t="n">
+        <v/>
+      </c>
+      <c r="AY3" t="n">
+        <v/>
+      </c>
       <c r="AZ3" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
+      <c r="BA3" t="n">
+        <v/>
+      </c>
+      <c r="BB3" t="n">
+        <v/>
+      </c>
+      <c r="BC3" t="n">
+        <v/>
+      </c>
       <c r="BD3" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="inlineStr"/>
+      <c r="BE3" t="n">
+        <v/>
+      </c>
+      <c r="BF3" t="n">
+        <v/>
+      </c>
+      <c r="BG3" t="n">
+        <v/>
+      </c>
       <c r="BH3" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
+      <c r="BI3" t="n">
+        <v/>
+      </c>
+      <c r="BJ3" t="n">
+        <v/>
+      </c>
+      <c r="BK3" t="n">
+        <v/>
+      </c>
       <c r="BL3" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="inlineStr"/>
-      <c r="BO3" t="inlineStr"/>
+      <c r="BM3" t="n">
+        <v/>
+      </c>
+      <c r="BN3" t="n">
+        <v/>
+      </c>
+      <c r="BO3" t="n">
+        <v/>
+      </c>
       <c r="BP3" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ3" t="inlineStr"/>
-      <c r="BR3" t="inlineStr"/>
-      <c r="BS3" t="inlineStr"/>
+      <c r="BQ3" t="n">
+        <v/>
+      </c>
+      <c r="BR3" t="n">
+        <v/>
+      </c>
+      <c r="BS3" t="n">
+        <v/>
+      </c>
       <c r="BT3" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU3" t="inlineStr"/>
-      <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="inlineStr"/>
+      <c r="BU3" t="n">
+        <v/>
+      </c>
+      <c r="BV3" t="n">
+        <v/>
+      </c>
+      <c r="BW3" t="n">
+        <v/>
+      </c>
       <c r="BX3" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY3" t="inlineStr"/>
-      <c r="BZ3" t="inlineStr"/>
-      <c r="CA3" t="inlineStr"/>
+      <c r="BY3" t="n">
+        <v/>
+      </c>
+      <c r="BZ3" t="n">
+        <v/>
+      </c>
+      <c r="CA3" t="n">
+        <v/>
+      </c>
       <c r="CB3" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CC3" t="inlineStr"/>
-      <c r="CD3" t="inlineStr"/>
-      <c r="CE3" t="inlineStr"/>
+      <c r="CC3" t="n">
+        <v/>
+      </c>
+      <c r="CD3" t="n">
+        <v/>
+      </c>
+      <c r="CE3" t="n">
+        <v/>
+      </c>
       <c r="CF3" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG3" t="inlineStr"/>
-      <c r="CH3" t="inlineStr"/>
-      <c r="CI3" t="inlineStr"/>
+      <c r="CG3" t="n">
+        <v/>
+      </c>
+      <c r="CH3" t="n">
+        <v/>
+      </c>
+      <c r="CI3" t="n">
+        <v/>
+      </c>
       <c r="CJ3" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CK3" t="inlineStr"/>
-      <c r="CL3" t="inlineStr"/>
-      <c r="CM3" t="inlineStr"/>
+      <c r="CK3" t="n">
+        <v/>
+      </c>
+      <c r="CL3" t="n">
+        <v/>
+      </c>
+      <c r="CM3" t="n">
+        <v/>
+      </c>
       <c r="CN3" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -24491,7 +24643,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -24499,7 +24651,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v/>
+      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
@@ -24664,7 +24818,9 @@
           <t>No plans to adopt</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr"/>
+      <c r="AN4" t="n">
+        <v/>
+      </c>
       <c r="AO4" t="inlineStr">
         <is>
           <t>Is a Goal</t>
@@ -24675,32 +24831,54 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr"/>
+      <c r="AQ4" t="n">
+        <v/>
+      </c>
       <c r="AR4" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
+      <c r="AS4" t="n">
+        <v/>
+      </c>
+      <c r="AT4" t="n">
+        <v/>
+      </c>
+      <c r="AU4" t="n">
+        <v/>
+      </c>
       <c r="AV4" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
+      <c r="AW4" t="n">
+        <v/>
+      </c>
+      <c r="AX4" t="n">
+        <v/>
+      </c>
+      <c r="AY4" t="n">
+        <v/>
+      </c>
       <c r="AZ4" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
+      <c r="BA4" t="n">
+        <v/>
+      </c>
+      <c r="BB4" t="n">
+        <v/>
+      </c>
+      <c r="BC4" t="n">
+        <v/>
+      </c>
+      <c r="BD4" t="n">
+        <v/>
+      </c>
       <c r="BE4" t="inlineStr">
         <is>
           <t>Is a goal</t>
@@ -24711,24 +24889,40 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BG4" t="inlineStr"/>
+      <c r="BG4" t="n">
+        <v/>
+      </c>
       <c r="BH4" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI4" t="inlineStr"/>
-      <c r="BJ4" t="inlineStr"/>
-      <c r="BK4" t="inlineStr"/>
+      <c r="BI4" t="n">
+        <v/>
+      </c>
+      <c r="BJ4" t="n">
+        <v/>
+      </c>
+      <c r="BK4" t="n">
+        <v/>
+      </c>
       <c r="BL4" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM4" t="inlineStr"/>
-      <c r="BN4" t="inlineStr"/>
-      <c r="BO4" t="inlineStr"/>
-      <c r="BP4" t="inlineStr"/>
+      <c r="BM4" t="n">
+        <v/>
+      </c>
+      <c r="BN4" t="n">
+        <v/>
+      </c>
+      <c r="BO4" t="n">
+        <v/>
+      </c>
+      <c r="BP4" t="n">
+        <v/>
+      </c>
       <c r="BQ4" t="inlineStr">
         <is>
           <t>Is a goal</t>
@@ -24739,8 +24933,12 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BS4" t="inlineStr"/>
-      <c r="BT4" t="inlineStr"/>
+      <c r="BS4" t="n">
+        <v/>
+      </c>
+      <c r="BT4" t="n">
+        <v/>
+      </c>
       <c r="BU4" t="inlineStr">
         <is>
           <t>Is a goal</t>
@@ -24751,39 +24949,65 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BW4" t="inlineStr"/>
+      <c r="BW4" t="n">
+        <v/>
+      </c>
       <c r="BX4" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY4" t="inlineStr"/>
-      <c r="BZ4" t="inlineStr"/>
-      <c r="CA4" t="inlineStr"/>
-      <c r="CB4" t="inlineStr"/>
+      <c r="BY4" t="n">
+        <v/>
+      </c>
+      <c r="BZ4" t="n">
+        <v/>
+      </c>
+      <c r="CA4" t="n">
+        <v/>
+      </c>
+      <c r="CB4" t="n">
+        <v/>
+      </c>
       <c r="CC4" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD4" t="inlineStr"/>
-      <c r="CE4" t="inlineStr"/>
-      <c r="CF4" t="inlineStr"/>
+      <c r="CD4" t="n">
+        <v/>
+      </c>
+      <c r="CE4" t="n">
+        <v/>
+      </c>
+      <c r="CF4" t="n">
+        <v/>
+      </c>
       <c r="CG4" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH4" t="inlineStr"/>
-      <c r="CI4" t="inlineStr"/>
-      <c r="CJ4" t="inlineStr"/>
+      <c r="CH4" t="n">
+        <v/>
+      </c>
+      <c r="CI4" t="n">
+        <v/>
+      </c>
+      <c r="CJ4" t="n">
+        <v/>
+      </c>
       <c r="CK4" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL4" t="inlineStr"/>
-      <c r="CM4" t="inlineStr"/>
+      <c r="CL4" t="n">
+        <v/>
+      </c>
+      <c r="CM4" t="n">
+        <v/>
+      </c>
       <c r="CN4" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -24801,7 +25025,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -24809,7 +25033,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v/>
+      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -24974,39 +25200,65 @@
           <t>No plans to adopt</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr"/>
+      <c r="AN5" t="n">
+        <v/>
+      </c>
       <c r="AO5" t="inlineStr">
         <is>
           <t>Is a Goal</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
+      <c r="AP5" t="n">
+        <v/>
+      </c>
+      <c r="AQ5" t="n">
+        <v/>
+      </c>
       <c r="AR5" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
+      <c r="AS5" t="n">
+        <v/>
+      </c>
+      <c r="AT5" t="n">
+        <v/>
+      </c>
+      <c r="AU5" t="n">
+        <v/>
+      </c>
       <c r="AV5" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
+      <c r="AW5" t="n">
+        <v/>
+      </c>
+      <c r="AX5" t="n">
+        <v/>
+      </c>
+      <c r="AY5" t="n">
+        <v/>
+      </c>
+      <c r="AZ5" t="n">
+        <v/>
+      </c>
       <c r="BA5" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
+      <c r="BB5" t="n">
+        <v/>
+      </c>
+      <c r="BC5" t="n">
+        <v/>
+      </c>
+      <c r="BD5" t="n">
+        <v/>
+      </c>
       <c r="BE5" t="inlineStr">
         <is>
           <t>Is a goal</t>
@@ -25017,71 +25269,121 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BG5" t="inlineStr"/>
+      <c r="BG5" t="n">
+        <v/>
+      </c>
       <c r="BH5" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI5" t="inlineStr"/>
-      <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="inlineStr"/>
+      <c r="BI5" t="n">
+        <v/>
+      </c>
+      <c r="BJ5" t="n">
+        <v/>
+      </c>
+      <c r="BK5" t="n">
+        <v/>
+      </c>
       <c r="BL5" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="inlineStr"/>
-      <c r="BO5" t="inlineStr"/>
-      <c r="BP5" t="inlineStr"/>
+      <c r="BM5" t="n">
+        <v/>
+      </c>
+      <c r="BN5" t="n">
+        <v/>
+      </c>
+      <c r="BO5" t="n">
+        <v/>
+      </c>
+      <c r="BP5" t="n">
+        <v/>
+      </c>
       <c r="BQ5" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR5" t="inlineStr"/>
-      <c r="BS5" t="inlineStr"/>
-      <c r="BT5" t="inlineStr"/>
+      <c r="BR5" t="n">
+        <v/>
+      </c>
+      <c r="BS5" t="n">
+        <v/>
+      </c>
+      <c r="BT5" t="n">
+        <v/>
+      </c>
       <c r="BU5" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV5" t="inlineStr"/>
-      <c r="BW5" t="inlineStr"/>
-      <c r="BX5" t="inlineStr"/>
+      <c r="BV5" t="n">
+        <v/>
+      </c>
+      <c r="BW5" t="n">
+        <v/>
+      </c>
+      <c r="BX5" t="n">
+        <v/>
+      </c>
       <c r="BY5" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ5" t="inlineStr"/>
-      <c r="CA5" t="inlineStr"/>
-      <c r="CB5" t="inlineStr"/>
+      <c r="BZ5" t="n">
+        <v/>
+      </c>
+      <c r="CA5" t="n">
+        <v/>
+      </c>
+      <c r="CB5" t="n">
+        <v/>
+      </c>
       <c r="CC5" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD5" t="inlineStr"/>
-      <c r="CE5" t="inlineStr"/>
-      <c r="CF5" t="inlineStr"/>
+      <c r="CD5" t="n">
+        <v/>
+      </c>
+      <c r="CE5" t="n">
+        <v/>
+      </c>
+      <c r="CF5" t="n">
+        <v/>
+      </c>
       <c r="CG5" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH5" t="inlineStr"/>
-      <c r="CI5" t="inlineStr"/>
-      <c r="CJ5" t="inlineStr"/>
+      <c r="CH5" t="n">
+        <v/>
+      </c>
+      <c r="CI5" t="n">
+        <v/>
+      </c>
+      <c r="CJ5" t="n">
+        <v/>
+      </c>
       <c r="CK5" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL5" t="inlineStr"/>
-      <c r="CM5" t="inlineStr"/>
+      <c r="CL5" t="n">
+        <v/>
+      </c>
+      <c r="CM5" t="n">
+        <v/>
+      </c>
       <c r="CN5" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -25099,7 +25401,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25107,7 +25409,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v/>
+      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -25277,105 +25581,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AO6" t="n">
+        <v/>
+      </c>
+      <c r="AP6" t="n">
+        <v/>
+      </c>
+      <c r="AQ6" t="n">
+        <v/>
+      </c>
       <c r="AR6" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
+      <c r="AS6" t="n">
+        <v/>
+      </c>
+      <c r="AT6" t="n">
+        <v/>
+      </c>
+      <c r="AU6" t="n">
+        <v/>
+      </c>
       <c r="AV6" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
+      <c r="AW6" t="n">
+        <v/>
+      </c>
+      <c r="AX6" t="n">
+        <v/>
+      </c>
+      <c r="AY6" t="n">
+        <v/>
+      </c>
+      <c r="AZ6" t="n">
+        <v/>
+      </c>
       <c r="BA6" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
+      <c r="BB6" t="n">
+        <v/>
+      </c>
+      <c r="BC6" t="n">
+        <v/>
+      </c>
+      <c r="BD6" t="n">
+        <v/>
+      </c>
       <c r="BE6" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF6" t="inlineStr"/>
-      <c r="BG6" t="inlineStr"/>
+      <c r="BF6" t="n">
+        <v/>
+      </c>
+      <c r="BG6" t="n">
+        <v/>
+      </c>
       <c r="BH6" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI6" t="inlineStr"/>
-      <c r="BJ6" t="inlineStr"/>
-      <c r="BK6" t="inlineStr"/>
+      <c r="BI6" t="n">
+        <v/>
+      </c>
+      <c r="BJ6" t="n">
+        <v/>
+      </c>
+      <c r="BK6" t="n">
+        <v/>
+      </c>
       <c r="BL6" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM6" t="inlineStr"/>
-      <c r="BN6" t="inlineStr"/>
-      <c r="BO6" t="inlineStr"/>
+      <c r="BM6" t="n">
+        <v/>
+      </c>
+      <c r="BN6" t="n">
+        <v/>
+      </c>
+      <c r="BO6" t="n">
+        <v/>
+      </c>
       <c r="BP6" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ6" t="inlineStr"/>
-      <c r="BR6" t="inlineStr"/>
-      <c r="BS6" t="inlineStr"/>
+      <c r="BQ6" t="n">
+        <v/>
+      </c>
+      <c r="BR6" t="n">
+        <v/>
+      </c>
+      <c r="BS6" t="n">
+        <v/>
+      </c>
       <c r="BT6" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU6" t="inlineStr"/>
-      <c r="BV6" t="inlineStr"/>
-      <c r="BW6" t="inlineStr"/>
-      <c r="BX6" t="inlineStr"/>
+      <c r="BU6" t="n">
+        <v/>
+      </c>
+      <c r="BV6" t="n">
+        <v/>
+      </c>
+      <c r="BW6" t="n">
+        <v/>
+      </c>
+      <c r="BX6" t="n">
+        <v/>
+      </c>
       <c r="BY6" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ6" t="inlineStr"/>
-      <c r="CA6" t="inlineStr"/>
-      <c r="CB6" t="inlineStr"/>
+      <c r="BZ6" t="n">
+        <v/>
+      </c>
+      <c r="CA6" t="n">
+        <v/>
+      </c>
+      <c r="CB6" t="n">
+        <v/>
+      </c>
       <c r="CC6" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD6" t="inlineStr"/>
-      <c r="CE6" t="inlineStr"/>
+      <c r="CD6" t="n">
+        <v/>
+      </c>
+      <c r="CE6" t="n">
+        <v/>
+      </c>
       <c r="CF6" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG6" t="inlineStr"/>
-      <c r="CH6" t="inlineStr"/>
-      <c r="CI6" t="inlineStr"/>
-      <c r="CJ6" t="inlineStr"/>
+      <c r="CG6" t="n">
+        <v/>
+      </c>
+      <c r="CH6" t="n">
+        <v/>
+      </c>
+      <c r="CI6" t="n">
+        <v/>
+      </c>
+      <c r="CJ6" t="n">
+        <v/>
+      </c>
       <c r="CK6" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL6" t="inlineStr"/>
-      <c r="CM6" t="inlineStr"/>
+      <c r="CL6" t="n">
+        <v/>
+      </c>
+      <c r="CM6" t="n">
+        <v/>
+      </c>
       <c r="CN6" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -25393,7 +25775,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -25401,7 +25783,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v/>
+      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
@@ -25571,105 +25955,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
+      <c r="AO7" t="n">
+        <v/>
+      </c>
+      <c r="AP7" t="n">
+        <v/>
+      </c>
+      <c r="AQ7" t="n">
+        <v/>
+      </c>
+      <c r="AR7" t="n">
+        <v/>
+      </c>
       <c r="AS7" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
+      <c r="AT7" t="n">
+        <v/>
+      </c>
+      <c r="AU7" t="n">
+        <v/>
+      </c>
       <c r="AV7" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
+      <c r="AW7" t="n">
+        <v/>
+      </c>
+      <c r="AX7" t="n">
+        <v/>
+      </c>
+      <c r="AY7" t="n">
+        <v/>
+      </c>
       <c r="AZ7" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
+      <c r="BA7" t="n">
+        <v/>
+      </c>
+      <c r="BB7" t="n">
+        <v/>
+      </c>
+      <c r="BC7" t="n">
+        <v/>
+      </c>
+      <c r="BD7" t="n">
+        <v/>
+      </c>
       <c r="BE7" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF7" t="inlineStr"/>
-      <c r="BG7" t="inlineStr"/>
+      <c r="BF7" t="n">
+        <v/>
+      </c>
+      <c r="BG7" t="n">
+        <v/>
+      </c>
       <c r="BH7" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI7" t="inlineStr"/>
-      <c r="BJ7" t="inlineStr"/>
-      <c r="BK7" t="inlineStr"/>
+      <c r="BI7" t="n">
+        <v/>
+      </c>
+      <c r="BJ7" t="n">
+        <v/>
+      </c>
+      <c r="BK7" t="n">
+        <v/>
+      </c>
       <c r="BL7" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM7" t="inlineStr"/>
-      <c r="BN7" t="inlineStr"/>
-      <c r="BO7" t="inlineStr"/>
+      <c r="BM7" t="n">
+        <v/>
+      </c>
+      <c r="BN7" t="n">
+        <v/>
+      </c>
+      <c r="BO7" t="n">
+        <v/>
+      </c>
       <c r="BP7" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ7" t="inlineStr"/>
-      <c r="BR7" t="inlineStr"/>
-      <c r="BS7" t="inlineStr"/>
+      <c r="BQ7" t="n">
+        <v/>
+      </c>
+      <c r="BR7" t="n">
+        <v/>
+      </c>
+      <c r="BS7" t="n">
+        <v/>
+      </c>
       <c r="BT7" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU7" t="inlineStr"/>
-      <c r="BV7" t="inlineStr"/>
-      <c r="BW7" t="inlineStr"/>
-      <c r="BX7" t="inlineStr"/>
+      <c r="BU7" t="n">
+        <v/>
+      </c>
+      <c r="BV7" t="n">
+        <v/>
+      </c>
+      <c r="BW7" t="n">
+        <v/>
+      </c>
+      <c r="BX7" t="n">
+        <v/>
+      </c>
       <c r="BY7" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ7" t="inlineStr"/>
-      <c r="CA7" t="inlineStr"/>
-      <c r="CB7" t="inlineStr"/>
+      <c r="BZ7" t="n">
+        <v/>
+      </c>
+      <c r="CA7" t="n">
+        <v/>
+      </c>
+      <c r="CB7" t="n">
+        <v/>
+      </c>
       <c r="CC7" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD7" t="inlineStr"/>
-      <c r="CE7" t="inlineStr"/>
+      <c r="CD7" t="n">
+        <v/>
+      </c>
+      <c r="CE7" t="n">
+        <v/>
+      </c>
       <c r="CF7" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG7" t="inlineStr"/>
-      <c r="CH7" t="inlineStr"/>
-      <c r="CI7" t="inlineStr"/>
+      <c r="CG7" t="n">
+        <v/>
+      </c>
+      <c r="CH7" t="n">
+        <v/>
+      </c>
+      <c r="CI7" t="n">
+        <v/>
+      </c>
       <c r="CJ7" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CK7" t="inlineStr"/>
-      <c r="CL7" t="inlineStr"/>
-      <c r="CM7" t="inlineStr"/>
+      <c r="CK7" t="n">
+        <v/>
+      </c>
+      <c r="CL7" t="n">
+        <v/>
+      </c>
+      <c r="CM7" t="n">
+        <v/>
+      </c>
       <c r="CN7" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -25687,7 +26149,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -25695,7 +26157,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v/>
+      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
@@ -25865,105 +26329,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
+      <c r="AO8" t="n">
+        <v/>
+      </c>
+      <c r="AP8" t="n">
+        <v/>
+      </c>
+      <c r="AQ8" t="n">
+        <v/>
+      </c>
       <c r="AR8" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
+      <c r="AS8" t="n">
+        <v/>
+      </c>
+      <c r="AT8" t="n">
+        <v/>
+      </c>
+      <c r="AU8" t="n">
+        <v/>
+      </c>
       <c r="AV8" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
+      <c r="AW8" t="n">
+        <v/>
+      </c>
+      <c r="AX8" t="n">
+        <v/>
+      </c>
+      <c r="AY8" t="n">
+        <v/>
+      </c>
       <c r="AZ8" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
+      <c r="BA8" t="n">
+        <v/>
+      </c>
+      <c r="BB8" t="n">
+        <v/>
+      </c>
+      <c r="BC8" t="n">
+        <v/>
+      </c>
+      <c r="BD8" t="n">
+        <v/>
+      </c>
       <c r="BE8" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF8" t="inlineStr"/>
-      <c r="BG8" t="inlineStr"/>
+      <c r="BF8" t="n">
+        <v/>
+      </c>
+      <c r="BG8" t="n">
+        <v/>
+      </c>
       <c r="BH8" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI8" t="inlineStr"/>
-      <c r="BJ8" t="inlineStr"/>
-      <c r="BK8" t="inlineStr"/>
+      <c r="BI8" t="n">
+        <v/>
+      </c>
+      <c r="BJ8" t="n">
+        <v/>
+      </c>
+      <c r="BK8" t="n">
+        <v/>
+      </c>
       <c r="BL8" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM8" t="inlineStr"/>
-      <c r="BN8" t="inlineStr"/>
-      <c r="BO8" t="inlineStr"/>
-      <c r="BP8" t="inlineStr"/>
+      <c r="BM8" t="n">
+        <v/>
+      </c>
+      <c r="BN8" t="n">
+        <v/>
+      </c>
+      <c r="BO8" t="n">
+        <v/>
+      </c>
+      <c r="BP8" t="n">
+        <v/>
+      </c>
       <c r="BQ8" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR8" t="inlineStr"/>
-      <c r="BS8" t="inlineStr"/>
+      <c r="BR8" t="n">
+        <v/>
+      </c>
+      <c r="BS8" t="n">
+        <v/>
+      </c>
       <c r="BT8" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU8" t="inlineStr"/>
-      <c r="BV8" t="inlineStr"/>
-      <c r="BW8" t="inlineStr"/>
+      <c r="BU8" t="n">
+        <v/>
+      </c>
+      <c r="BV8" t="n">
+        <v/>
+      </c>
+      <c r="BW8" t="n">
+        <v/>
+      </c>
       <c r="BX8" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY8" t="inlineStr"/>
-      <c r="BZ8" t="inlineStr"/>
-      <c r="CA8" t="inlineStr"/>
+      <c r="BY8" t="n">
+        <v/>
+      </c>
+      <c r="BZ8" t="n">
+        <v/>
+      </c>
+      <c r="CA8" t="n">
+        <v/>
+      </c>
       <c r="CB8" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CC8" t="inlineStr"/>
-      <c r="CD8" t="inlineStr"/>
-      <c r="CE8" t="inlineStr"/>
+      <c r="CC8" t="n">
+        <v/>
+      </c>
+      <c r="CD8" t="n">
+        <v/>
+      </c>
+      <c r="CE8" t="n">
+        <v/>
+      </c>
       <c r="CF8" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG8" t="inlineStr"/>
-      <c r="CH8" t="inlineStr"/>
-      <c r="CI8" t="inlineStr"/>
+      <c r="CG8" t="n">
+        <v/>
+      </c>
+      <c r="CH8" t="n">
+        <v/>
+      </c>
+      <c r="CI8" t="n">
+        <v/>
+      </c>
       <c r="CJ8" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CK8" t="inlineStr"/>
-      <c r="CL8" t="inlineStr"/>
-      <c r="CM8" t="inlineStr"/>
+      <c r="CK8" t="n">
+        <v/>
+      </c>
+      <c r="CL8" t="n">
+        <v/>
+      </c>
+      <c r="CM8" t="n">
+        <v/>
+      </c>
       <c r="CN8" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -25981,7 +26523,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -25989,7 +26531,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v/>
+      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
@@ -26154,7 +26698,9 @@
           <t>Already in place</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr"/>
+      <c r="AN9" t="n">
+        <v/>
+      </c>
       <c r="AO9" t="inlineStr">
         <is>
           <t>Is a Goal</t>
@@ -26165,32 +26711,54 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr"/>
+      <c r="AQ9" t="n">
+        <v/>
+      </c>
       <c r="AR9" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
+      <c r="AS9" t="n">
+        <v/>
+      </c>
+      <c r="AT9" t="n">
+        <v/>
+      </c>
+      <c r="AU9" t="n">
+        <v/>
+      </c>
       <c r="AV9" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
+      <c r="AW9" t="n">
+        <v/>
+      </c>
+      <c r="AX9" t="n">
+        <v/>
+      </c>
+      <c r="AY9" t="n">
+        <v/>
+      </c>
       <c r="AZ9" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
+      <c r="BA9" t="n">
+        <v/>
+      </c>
+      <c r="BB9" t="n">
+        <v/>
+      </c>
+      <c r="BC9" t="n">
+        <v/>
+      </c>
+      <c r="BD9" t="n">
+        <v/>
+      </c>
       <c r="BE9" t="inlineStr">
         <is>
           <t>Is a goal</t>
@@ -26201,48 +26769,82 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BG9" t="inlineStr"/>
+      <c r="BG9" t="n">
+        <v/>
+      </c>
       <c r="BH9" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
+      <c r="BI9" t="n">
+        <v/>
+      </c>
+      <c r="BJ9" t="n">
+        <v/>
+      </c>
+      <c r="BK9" t="n">
+        <v/>
+      </c>
       <c r="BL9" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM9" t="inlineStr"/>
-      <c r="BN9" t="inlineStr"/>
-      <c r="BO9" t="inlineStr"/>
+      <c r="BM9" t="n">
+        <v/>
+      </c>
+      <c r="BN9" t="n">
+        <v/>
+      </c>
+      <c r="BO9" t="n">
+        <v/>
+      </c>
       <c r="BP9" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ9" t="inlineStr"/>
-      <c r="BR9" t="inlineStr"/>
-      <c r="BS9" t="inlineStr"/>
+      <c r="BQ9" t="n">
+        <v/>
+      </c>
+      <c r="BR9" t="n">
+        <v/>
+      </c>
+      <c r="BS9" t="n">
+        <v/>
+      </c>
       <c r="BT9" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU9" t="inlineStr"/>
-      <c r="BV9" t="inlineStr"/>
-      <c r="BW9" t="inlineStr"/>
-      <c r="BX9" t="inlineStr"/>
-      <c r="BY9" t="inlineStr"/>
+      <c r="BU9" t="n">
+        <v/>
+      </c>
+      <c r="BV9" t="n">
+        <v/>
+      </c>
+      <c r="BW9" t="n">
+        <v/>
+      </c>
+      <c r="BX9" t="n">
+        <v/>
+      </c>
+      <c r="BY9" t="n">
+        <v/>
+      </c>
       <c r="BZ9" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="CA9" t="inlineStr"/>
-      <c r="CB9" t="inlineStr"/>
+      <c r="CA9" t="n">
+        <v/>
+      </c>
+      <c r="CB9" t="n">
+        <v/>
+      </c>
       <c r="CC9" t="inlineStr">
         <is>
           <t>Is a goal</t>
@@ -26253,8 +26855,12 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="CE9" t="inlineStr"/>
-      <c r="CF9" t="inlineStr"/>
+      <c r="CE9" t="n">
+        <v/>
+      </c>
+      <c r="CF9" t="n">
+        <v/>
+      </c>
       <c r="CG9" t="inlineStr">
         <is>
           <t>Is a goal</t>
@@ -26265,15 +26871,23 @@
           <t>Goal was acheived</t>
         </is>
       </c>
-      <c r="CI9" t="inlineStr"/>
-      <c r="CJ9" t="inlineStr"/>
+      <c r="CI9" t="n">
+        <v/>
+      </c>
+      <c r="CJ9" t="n">
+        <v/>
+      </c>
       <c r="CK9" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL9" t="inlineStr"/>
-      <c r="CM9" t="inlineStr"/>
+      <c r="CL9" t="n">
+        <v/>
+      </c>
+      <c r="CM9" t="n">
+        <v/>
+      </c>
       <c r="CN9" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -26291,7 +26905,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -26299,7 +26913,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v/>
+      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
@@ -26464,110 +27080,188 @@
           <t>Already in place</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr"/>
+      <c r="AN10" t="n">
+        <v/>
+      </c>
       <c r="AO10" t="inlineStr">
         <is>
           <t>Is a Goal</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
+      <c r="AP10" t="n">
+        <v/>
+      </c>
+      <c r="AQ10" t="n">
+        <v/>
+      </c>
       <c r="AR10" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
+      <c r="AS10" t="n">
+        <v/>
+      </c>
+      <c r="AT10" t="n">
+        <v/>
+      </c>
+      <c r="AU10" t="n">
+        <v/>
+      </c>
       <c r="AV10" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
+      <c r="AW10" t="n">
+        <v/>
+      </c>
+      <c r="AX10" t="n">
+        <v/>
+      </c>
+      <c r="AY10" t="n">
+        <v/>
+      </c>
       <c r="AZ10" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
+      <c r="BA10" t="n">
+        <v/>
+      </c>
+      <c r="BB10" t="n">
+        <v/>
+      </c>
+      <c r="BC10" t="n">
+        <v/>
+      </c>
+      <c r="BD10" t="n">
+        <v/>
+      </c>
       <c r="BE10" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF10" t="inlineStr"/>
-      <c r="BG10" t="inlineStr"/>
-      <c r="BH10" t="inlineStr"/>
+      <c r="BF10" t="n">
+        <v/>
+      </c>
+      <c r="BG10" t="n">
+        <v/>
+      </c>
+      <c r="BH10" t="n">
+        <v/>
+      </c>
       <c r="BI10" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ10" t="inlineStr"/>
-      <c r="BK10" t="inlineStr"/>
+      <c r="BJ10" t="n">
+        <v/>
+      </c>
+      <c r="BK10" t="n">
+        <v/>
+      </c>
       <c r="BL10" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM10" t="inlineStr"/>
-      <c r="BN10" t="inlineStr"/>
-      <c r="BO10" t="inlineStr"/>
+      <c r="BM10" t="n">
+        <v/>
+      </c>
+      <c r="BN10" t="n">
+        <v/>
+      </c>
+      <c r="BO10" t="n">
+        <v/>
+      </c>
       <c r="BP10" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ10" t="inlineStr"/>
-      <c r="BR10" t="inlineStr"/>
-      <c r="BS10" t="inlineStr"/>
-      <c r="BT10" t="inlineStr"/>
+      <c r="BQ10" t="n">
+        <v/>
+      </c>
+      <c r="BR10" t="n">
+        <v/>
+      </c>
+      <c r="BS10" t="n">
+        <v/>
+      </c>
+      <c r="BT10" t="n">
+        <v/>
+      </c>
       <c r="BU10" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV10" t="inlineStr"/>
-      <c r="BW10" t="inlineStr"/>
+      <c r="BV10" t="n">
+        <v/>
+      </c>
+      <c r="BW10" t="n">
+        <v/>
+      </c>
       <c r="BX10" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY10" t="inlineStr"/>
-      <c r="BZ10" t="inlineStr"/>
-      <c r="CA10" t="inlineStr"/>
-      <c r="CB10" t="inlineStr"/>
+      <c r="BY10" t="n">
+        <v/>
+      </c>
+      <c r="BZ10" t="n">
+        <v/>
+      </c>
+      <c r="CA10" t="n">
+        <v/>
+      </c>
+      <c r="CB10" t="n">
+        <v/>
+      </c>
       <c r="CC10" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD10" t="inlineStr"/>
-      <c r="CE10" t="inlineStr"/>
-      <c r="CF10" t="inlineStr"/>
+      <c r="CD10" t="n">
+        <v/>
+      </c>
+      <c r="CE10" t="n">
+        <v/>
+      </c>
+      <c r="CF10" t="n">
+        <v/>
+      </c>
       <c r="CG10" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH10" t="inlineStr"/>
-      <c r="CI10" t="inlineStr"/>
-      <c r="CJ10" t="inlineStr"/>
+      <c r="CH10" t="n">
+        <v/>
+      </c>
+      <c r="CI10" t="n">
+        <v/>
+      </c>
+      <c r="CJ10" t="n">
+        <v/>
+      </c>
       <c r="CK10" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL10" t="inlineStr"/>
-      <c r="CM10" t="inlineStr"/>
+      <c r="CL10" t="n">
+        <v/>
+      </c>
+      <c r="CM10" t="n">
+        <v/>
+      </c>
       <c r="CN10" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -26585,7 +27279,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -26593,7 +27287,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v/>
+      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
@@ -26758,110 +27454,188 @@
           <t>No plans to adopt</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr"/>
+      <c r="AN11" t="n">
+        <v/>
+      </c>
       <c r="AO11" t="inlineStr">
         <is>
           <t>Is a Goal</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
+      <c r="AP11" t="n">
+        <v/>
+      </c>
+      <c r="AQ11" t="n">
+        <v/>
+      </c>
       <c r="AR11" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
+      <c r="AS11" t="n">
+        <v/>
+      </c>
+      <c r="AT11" t="n">
+        <v/>
+      </c>
+      <c r="AU11" t="n">
+        <v/>
+      </c>
       <c r="AV11" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
+      <c r="AW11" t="n">
+        <v/>
+      </c>
+      <c r="AX11" t="n">
+        <v/>
+      </c>
+      <c r="AY11" t="n">
+        <v/>
+      </c>
+      <c r="AZ11" t="n">
+        <v/>
+      </c>
       <c r="BA11" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
+      <c r="BB11" t="n">
+        <v/>
+      </c>
+      <c r="BC11" t="n">
+        <v/>
+      </c>
+      <c r="BD11" t="n">
+        <v/>
+      </c>
       <c r="BE11" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr"/>
+      <c r="BF11" t="n">
+        <v/>
+      </c>
+      <c r="BG11" t="n">
+        <v/>
+      </c>
+      <c r="BH11" t="n">
+        <v/>
+      </c>
       <c r="BI11" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
+      <c r="BJ11" t="n">
+        <v/>
+      </c>
+      <c r="BK11" t="n">
+        <v/>
+      </c>
+      <c r="BL11" t="n">
+        <v/>
+      </c>
       <c r="BM11" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BN11" t="inlineStr"/>
-      <c r="BO11" t="inlineStr"/>
+      <c r="BN11" t="n">
+        <v/>
+      </c>
+      <c r="BO11" t="n">
+        <v/>
+      </c>
       <c r="BP11" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ11" t="inlineStr"/>
-      <c r="BR11" t="inlineStr"/>
-      <c r="BS11" t="inlineStr"/>
-      <c r="BT11" t="inlineStr"/>
+      <c r="BQ11" t="n">
+        <v/>
+      </c>
+      <c r="BR11" t="n">
+        <v/>
+      </c>
+      <c r="BS11" t="n">
+        <v/>
+      </c>
+      <c r="BT11" t="n">
+        <v/>
+      </c>
       <c r="BU11" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="inlineStr"/>
+      <c r="BV11" t="n">
+        <v/>
+      </c>
+      <c r="BW11" t="n">
+        <v/>
+      </c>
       <c r="BX11" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY11" t="inlineStr"/>
-      <c r="BZ11" t="inlineStr"/>
-      <c r="CA11" t="inlineStr"/>
-      <c r="CB11" t="inlineStr"/>
+      <c r="BY11" t="n">
+        <v/>
+      </c>
+      <c r="BZ11" t="n">
+        <v/>
+      </c>
+      <c r="CA11" t="n">
+        <v/>
+      </c>
+      <c r="CB11" t="n">
+        <v/>
+      </c>
       <c r="CC11" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD11" t="inlineStr"/>
-      <c r="CE11" t="inlineStr"/>
-      <c r="CF11" t="inlineStr"/>
+      <c r="CD11" t="n">
+        <v/>
+      </c>
+      <c r="CE11" t="n">
+        <v/>
+      </c>
+      <c r="CF11" t="n">
+        <v/>
+      </c>
       <c r="CG11" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH11" t="inlineStr"/>
-      <c r="CI11" t="inlineStr"/>
-      <c r="CJ11" t="inlineStr"/>
+      <c r="CH11" t="n">
+        <v/>
+      </c>
+      <c r="CI11" t="n">
+        <v/>
+      </c>
+      <c r="CJ11" t="n">
+        <v/>
+      </c>
       <c r="CK11" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL11" t="inlineStr"/>
-      <c r="CM11" t="inlineStr"/>
+      <c r="CL11" t="n">
+        <v/>
+      </c>
+      <c r="CM11" t="n">
+        <v/>
+      </c>
       <c r="CN11" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -26879,7 +27653,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -26887,7 +27661,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v/>
+      </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
@@ -27057,82 +27833,144 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
+      <c r="AO12" t="n">
+        <v/>
+      </c>
+      <c r="AP12" t="n">
+        <v/>
+      </c>
+      <c r="AQ12" t="n">
+        <v/>
+      </c>
       <c r="AR12" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
+      <c r="AS12" t="n">
+        <v/>
+      </c>
+      <c r="AT12" t="n">
+        <v/>
+      </c>
+      <c r="AU12" t="n">
+        <v/>
+      </c>
       <c r="AV12" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
+      <c r="AW12" t="n">
+        <v/>
+      </c>
+      <c r="AX12" t="n">
+        <v/>
+      </c>
+      <c r="AY12" t="n">
+        <v/>
+      </c>
       <c r="AZ12" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
+      <c r="BA12" t="n">
+        <v/>
+      </c>
+      <c r="BB12" t="n">
+        <v/>
+      </c>
+      <c r="BC12" t="n">
+        <v/>
+      </c>
+      <c r="BD12" t="n">
+        <v/>
+      </c>
       <c r="BE12" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF12" t="inlineStr"/>
-      <c r="BG12" t="inlineStr"/>
+      <c r="BF12" t="n">
+        <v/>
+      </c>
+      <c r="BG12" t="n">
+        <v/>
+      </c>
       <c r="BH12" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI12" t="inlineStr"/>
-      <c r="BJ12" t="inlineStr"/>
-      <c r="BK12" t="inlineStr"/>
+      <c r="BI12" t="n">
+        <v/>
+      </c>
+      <c r="BJ12" t="n">
+        <v/>
+      </c>
+      <c r="BK12" t="n">
+        <v/>
+      </c>
       <c r="BL12" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM12" t="inlineStr"/>
-      <c r="BN12" t="inlineStr"/>
-      <c r="BO12" t="inlineStr"/>
+      <c r="BM12" t="n">
+        <v/>
+      </c>
+      <c r="BN12" t="n">
+        <v/>
+      </c>
+      <c r="BO12" t="n">
+        <v/>
+      </c>
       <c r="BP12" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ12" t="inlineStr"/>
-      <c r="BR12" t="inlineStr"/>
-      <c r="BS12" t="inlineStr"/>
+      <c r="BQ12" t="n">
+        <v/>
+      </c>
+      <c r="BR12" t="n">
+        <v/>
+      </c>
+      <c r="BS12" t="n">
+        <v/>
+      </c>
       <c r="BT12" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU12" t="inlineStr"/>
-      <c r="BV12" t="inlineStr"/>
-      <c r="BW12" t="inlineStr"/>
+      <c r="BU12" t="n">
+        <v/>
+      </c>
+      <c r="BV12" t="n">
+        <v/>
+      </c>
+      <c r="BW12" t="n">
+        <v/>
+      </c>
       <c r="BX12" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY12" t="inlineStr"/>
-      <c r="BZ12" t="inlineStr"/>
-      <c r="CA12" t="inlineStr"/>
-      <c r="CB12" t="inlineStr"/>
+      <c r="BY12" t="n">
+        <v/>
+      </c>
+      <c r="BZ12" t="n">
+        <v/>
+      </c>
+      <c r="CA12" t="n">
+        <v/>
+      </c>
+      <c r="CB12" t="n">
+        <v/>
+      </c>
       <c r="CC12" t="inlineStr">
         <is>
           <t>Is a goal</t>
@@ -27143,23 +27981,37 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="CE12" t="inlineStr"/>
-      <c r="CF12" t="inlineStr"/>
+      <c r="CE12" t="n">
+        <v/>
+      </c>
+      <c r="CF12" t="n">
+        <v/>
+      </c>
       <c r="CG12" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH12" t="inlineStr"/>
-      <c r="CI12" t="inlineStr"/>
+      <c r="CH12" t="n">
+        <v/>
+      </c>
+      <c r="CI12" t="n">
+        <v/>
+      </c>
       <c r="CJ12" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CK12" t="inlineStr"/>
-      <c r="CL12" t="inlineStr"/>
-      <c r="CM12" t="inlineStr"/>
+      <c r="CK12" t="n">
+        <v/>
+      </c>
+      <c r="CL12" t="n">
+        <v/>
+      </c>
+      <c r="CM12" t="n">
+        <v/>
+      </c>
       <c r="CN12" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -27177,7 +28029,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -27185,7 +28037,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v/>
+      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
@@ -27350,110 +28204,188 @@
           <t>Planning to adopt</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr"/>
+      <c r="AN13" t="n">
+        <v/>
+      </c>
       <c r="AO13" t="inlineStr">
         <is>
           <t>Is a Goal</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
+      <c r="AP13" t="n">
+        <v/>
+      </c>
+      <c r="AQ13" t="n">
+        <v/>
+      </c>
+      <c r="AR13" t="n">
+        <v/>
+      </c>
       <c r="AS13" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
+      <c r="AT13" t="n">
+        <v/>
+      </c>
+      <c r="AU13" t="n">
+        <v/>
+      </c>
+      <c r="AV13" t="n">
+        <v/>
+      </c>
+      <c r="AW13" t="n">
+        <v/>
+      </c>
       <c r="AX13" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
+      <c r="AY13" t="n">
+        <v/>
+      </c>
+      <c r="AZ13" t="n">
+        <v/>
+      </c>
+      <c r="BA13" t="n">
+        <v/>
+      </c>
       <c r="BB13" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
+      <c r="BC13" t="n">
+        <v/>
+      </c>
+      <c r="BD13" t="n">
+        <v/>
+      </c>
       <c r="BE13" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF13" t="inlineStr"/>
-      <c r="BG13" t="inlineStr"/>
-      <c r="BH13" t="inlineStr"/>
+      <c r="BF13" t="n">
+        <v/>
+      </c>
+      <c r="BG13" t="n">
+        <v/>
+      </c>
+      <c r="BH13" t="n">
+        <v/>
+      </c>
       <c r="BI13" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ13" t="inlineStr"/>
-      <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="inlineStr"/>
-      <c r="BN13" t="inlineStr"/>
+      <c r="BJ13" t="n">
+        <v/>
+      </c>
+      <c r="BK13" t="n">
+        <v/>
+      </c>
+      <c r="BL13" t="n">
+        <v/>
+      </c>
+      <c r="BM13" t="n">
+        <v/>
+      </c>
+      <c r="BN13" t="n">
+        <v/>
+      </c>
       <c r="BO13" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BP13" t="inlineStr"/>
-      <c r="BQ13" t="inlineStr"/>
-      <c r="BR13" t="inlineStr"/>
+      <c r="BP13" t="n">
+        <v/>
+      </c>
+      <c r="BQ13" t="n">
+        <v/>
+      </c>
+      <c r="BR13" t="n">
+        <v/>
+      </c>
       <c r="BS13" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BT13" t="inlineStr"/>
+      <c r="BT13" t="n">
+        <v/>
+      </c>
       <c r="BU13" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV13" t="inlineStr"/>
-      <c r="BW13" t="inlineStr"/>
-      <c r="BX13" t="inlineStr"/>
-      <c r="BY13" t="inlineStr"/>
-      <c r="BZ13" t="inlineStr"/>
+      <c r="BV13" t="n">
+        <v/>
+      </c>
+      <c r="BW13" t="n">
+        <v/>
+      </c>
+      <c r="BX13" t="n">
+        <v/>
+      </c>
+      <c r="BY13" t="n">
+        <v/>
+      </c>
+      <c r="BZ13" t="n">
+        <v/>
+      </c>
       <c r="CA13" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="CB13" t="inlineStr"/>
+      <c r="CB13" t="n">
+        <v/>
+      </c>
       <c r="CC13" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD13" t="inlineStr"/>
-      <c r="CE13" t="inlineStr"/>
-      <c r="CF13" t="inlineStr"/>
+      <c r="CD13" t="n">
+        <v/>
+      </c>
+      <c r="CE13" t="n">
+        <v/>
+      </c>
+      <c r="CF13" t="n">
+        <v/>
+      </c>
       <c r="CG13" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH13" t="inlineStr"/>
-      <c r="CI13" t="inlineStr"/>
-      <c r="CJ13" t="inlineStr"/>
+      <c r="CH13" t="n">
+        <v/>
+      </c>
+      <c r="CI13" t="n">
+        <v/>
+      </c>
+      <c r="CJ13" t="n">
+        <v/>
+      </c>
       <c r="CK13" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL13" t="inlineStr"/>
-      <c r="CM13" t="inlineStr"/>
+      <c r="CL13" t="n">
+        <v/>
+      </c>
+      <c r="CM13" t="n">
+        <v/>
+      </c>
       <c r="CN13" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -27471,7 +28403,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -27479,7 +28411,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v/>
+      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
@@ -27649,105 +28583,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
+      <c r="AO14" t="n">
+        <v/>
+      </c>
+      <c r="AP14" t="n">
+        <v/>
+      </c>
+      <c r="AQ14" t="n">
+        <v/>
+      </c>
       <c r="AR14" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
+      <c r="AS14" t="n">
+        <v/>
+      </c>
+      <c r="AT14" t="n">
+        <v/>
+      </c>
+      <c r="AU14" t="n">
+        <v/>
+      </c>
       <c r="AV14" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
+      <c r="AW14" t="n">
+        <v/>
+      </c>
+      <c r="AX14" t="n">
+        <v/>
+      </c>
+      <c r="AY14" t="n">
+        <v/>
+      </c>
       <c r="AZ14" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
+      <c r="BA14" t="n">
+        <v/>
+      </c>
+      <c r="BB14" t="n">
+        <v/>
+      </c>
+      <c r="BC14" t="n">
+        <v/>
+      </c>
+      <c r="BD14" t="n">
+        <v/>
+      </c>
       <c r="BE14" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF14" t="inlineStr"/>
-      <c r="BG14" t="inlineStr"/>
-      <c r="BH14" t="inlineStr"/>
+      <c r="BF14" t="n">
+        <v/>
+      </c>
+      <c r="BG14" t="n">
+        <v/>
+      </c>
+      <c r="BH14" t="n">
+        <v/>
+      </c>
       <c r="BI14" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ14" t="inlineStr"/>
-      <c r="BK14" t="inlineStr"/>
+      <c r="BJ14" t="n">
+        <v/>
+      </c>
+      <c r="BK14" t="n">
+        <v/>
+      </c>
       <c r="BL14" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM14" t="inlineStr"/>
-      <c r="BN14" t="inlineStr"/>
-      <c r="BO14" t="inlineStr"/>
+      <c r="BM14" t="n">
+        <v/>
+      </c>
+      <c r="BN14" t="n">
+        <v/>
+      </c>
+      <c r="BO14" t="n">
+        <v/>
+      </c>
       <c r="BP14" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ14" t="inlineStr"/>
-      <c r="BR14" t="inlineStr"/>
-      <c r="BS14" t="inlineStr"/>
+      <c r="BQ14" t="n">
+        <v/>
+      </c>
+      <c r="BR14" t="n">
+        <v/>
+      </c>
+      <c r="BS14" t="n">
+        <v/>
+      </c>
       <c r="BT14" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU14" t="inlineStr"/>
-      <c r="BV14" t="inlineStr"/>
-      <c r="BW14" t="inlineStr"/>
+      <c r="BU14" t="n">
+        <v/>
+      </c>
+      <c r="BV14" t="n">
+        <v/>
+      </c>
+      <c r="BW14" t="n">
+        <v/>
+      </c>
       <c r="BX14" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY14" t="inlineStr"/>
-      <c r="BZ14" t="inlineStr"/>
-      <c r="CA14" t="inlineStr"/>
-      <c r="CB14" t="inlineStr"/>
+      <c r="BY14" t="n">
+        <v/>
+      </c>
+      <c r="BZ14" t="n">
+        <v/>
+      </c>
+      <c r="CA14" t="n">
+        <v/>
+      </c>
+      <c r="CB14" t="n">
+        <v/>
+      </c>
       <c r="CC14" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD14" t="inlineStr"/>
-      <c r="CE14" t="inlineStr"/>
-      <c r="CF14" t="inlineStr"/>
-      <c r="CG14" t="inlineStr"/>
-      <c r="CH14" t="inlineStr"/>
+      <c r="CD14" t="n">
+        <v/>
+      </c>
+      <c r="CE14" t="n">
+        <v/>
+      </c>
+      <c r="CF14" t="n">
+        <v/>
+      </c>
+      <c r="CG14" t="n">
+        <v/>
+      </c>
+      <c r="CH14" t="n">
+        <v/>
+      </c>
       <c r="CI14" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="CJ14" t="inlineStr"/>
+      <c r="CJ14" t="n">
+        <v/>
+      </c>
       <c r="CK14" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL14" t="inlineStr"/>
-      <c r="CM14" t="inlineStr"/>
+      <c r="CL14" t="n">
+        <v/>
+      </c>
+      <c r="CM14" t="n">
+        <v/>
+      </c>
       <c r="CN14" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -27765,7 +28777,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -27773,7 +28785,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v/>
+      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
@@ -27938,110 +28952,188 @@
           <t>No plans to adopt</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
+      <c r="AN15" t="n">
+        <v/>
+      </c>
+      <c r="AO15" t="n">
+        <v/>
+      </c>
+      <c r="AP15" t="n">
+        <v/>
+      </c>
       <c r="AQ15" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
+      <c r="AR15" t="n">
+        <v/>
+      </c>
+      <c r="AS15" t="n">
+        <v/>
+      </c>
+      <c r="AT15" t="n">
+        <v/>
+      </c>
       <c r="AU15" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
+      <c r="AV15" t="n">
+        <v/>
+      </c>
+      <c r="AW15" t="n">
+        <v/>
+      </c>
+      <c r="AX15" t="n">
+        <v/>
+      </c>
       <c r="AY15" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AZ15" t="inlineStr"/>
+      <c r="AZ15" t="n">
+        <v/>
+      </c>
       <c r="BA15" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
+      <c r="BB15" t="n">
+        <v/>
+      </c>
+      <c r="BC15" t="n">
+        <v/>
+      </c>
+      <c r="BD15" t="n">
+        <v/>
+      </c>
       <c r="BE15" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF15" t="inlineStr"/>
-      <c r="BG15" t="inlineStr"/>
-      <c r="BH15" t="inlineStr"/>
+      <c r="BF15" t="n">
+        <v/>
+      </c>
+      <c r="BG15" t="n">
+        <v/>
+      </c>
+      <c r="BH15" t="n">
+        <v/>
+      </c>
       <c r="BI15" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ15" t="inlineStr"/>
-      <c r="BK15" t="inlineStr"/>
-      <c r="BL15" t="inlineStr"/>
+      <c r="BJ15" t="n">
+        <v/>
+      </c>
+      <c r="BK15" t="n">
+        <v/>
+      </c>
+      <c r="BL15" t="n">
+        <v/>
+      </c>
       <c r="BM15" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BN15" t="inlineStr"/>
-      <c r="BO15" t="inlineStr"/>
-      <c r="BP15" t="inlineStr"/>
-      <c r="BQ15" t="inlineStr"/>
-      <c r="BR15" t="inlineStr"/>
+      <c r="BN15" t="n">
+        <v/>
+      </c>
+      <c r="BO15" t="n">
+        <v/>
+      </c>
+      <c r="BP15" t="n">
+        <v/>
+      </c>
+      <c r="BQ15" t="n">
+        <v/>
+      </c>
+      <c r="BR15" t="n">
+        <v/>
+      </c>
       <c r="BS15" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BT15" t="inlineStr"/>
+      <c r="BT15" t="n">
+        <v/>
+      </c>
       <c r="BU15" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV15" t="inlineStr"/>
-      <c r="BW15" t="inlineStr"/>
-      <c r="BX15" t="inlineStr"/>
+      <c r="BV15" t="n">
+        <v/>
+      </c>
+      <c r="BW15" t="n">
+        <v/>
+      </c>
+      <c r="BX15" t="n">
+        <v/>
+      </c>
       <c r="BY15" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ15" t="inlineStr"/>
-      <c r="CA15" t="inlineStr"/>
-      <c r="CB15" t="inlineStr"/>
+      <c r="BZ15" t="n">
+        <v/>
+      </c>
+      <c r="CA15" t="n">
+        <v/>
+      </c>
+      <c r="CB15" t="n">
+        <v/>
+      </c>
       <c r="CC15" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD15" t="inlineStr"/>
-      <c r="CE15" t="inlineStr"/>
-      <c r="CF15" t="inlineStr"/>
+      <c r="CD15" t="n">
+        <v/>
+      </c>
+      <c r="CE15" t="n">
+        <v/>
+      </c>
+      <c r="CF15" t="n">
+        <v/>
+      </c>
       <c r="CG15" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH15" t="inlineStr"/>
-      <c r="CI15" t="inlineStr"/>
-      <c r="CJ15" t="inlineStr"/>
+      <c r="CH15" t="n">
+        <v/>
+      </c>
+      <c r="CI15" t="n">
+        <v/>
+      </c>
+      <c r="CJ15" t="n">
+        <v/>
+      </c>
       <c r="CK15" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL15" t="inlineStr"/>
-      <c r="CM15" t="inlineStr"/>
+      <c r="CL15" t="n">
+        <v/>
+      </c>
+      <c r="CM15" t="n">
+        <v/>
+      </c>
       <c r="CN15" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -28059,7 +29151,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -28067,7 +29159,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v/>
+      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
@@ -28237,105 +29331,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
+      <c r="AO16" t="n">
+        <v/>
+      </c>
+      <c r="AP16" t="n">
+        <v/>
+      </c>
+      <c r="AQ16" t="n">
+        <v/>
+      </c>
       <c r="AR16" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
+      <c r="AS16" t="n">
+        <v/>
+      </c>
+      <c r="AT16" t="n">
+        <v/>
+      </c>
+      <c r="AU16" t="n">
+        <v/>
+      </c>
       <c r="AV16" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
+      <c r="AW16" t="n">
+        <v/>
+      </c>
+      <c r="AX16" t="n">
+        <v/>
+      </c>
+      <c r="AY16" t="n">
+        <v/>
+      </c>
+      <c r="AZ16" t="n">
+        <v/>
+      </c>
       <c r="BA16" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr"/>
+      <c r="BB16" t="n">
+        <v/>
+      </c>
+      <c r="BC16" t="n">
+        <v/>
+      </c>
+      <c r="BD16" t="n">
+        <v/>
+      </c>
       <c r="BE16" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF16" t="inlineStr"/>
-      <c r="BG16" t="inlineStr"/>
+      <c r="BF16" t="n">
+        <v/>
+      </c>
+      <c r="BG16" t="n">
+        <v/>
+      </c>
       <c r="BH16" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI16" t="inlineStr"/>
-      <c r="BJ16" t="inlineStr"/>
-      <c r="BK16" t="inlineStr"/>
+      <c r="BI16" t="n">
+        <v/>
+      </c>
+      <c r="BJ16" t="n">
+        <v/>
+      </c>
+      <c r="BK16" t="n">
+        <v/>
+      </c>
       <c r="BL16" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM16" t="inlineStr"/>
-      <c r="BN16" t="inlineStr"/>
-      <c r="BO16" t="inlineStr"/>
-      <c r="BP16" t="inlineStr"/>
+      <c r="BM16" t="n">
+        <v/>
+      </c>
+      <c r="BN16" t="n">
+        <v/>
+      </c>
+      <c r="BO16" t="n">
+        <v/>
+      </c>
+      <c r="BP16" t="n">
+        <v/>
+      </c>
       <c r="BQ16" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR16" t="inlineStr"/>
-      <c r="BS16" t="inlineStr"/>
-      <c r="BT16" t="inlineStr"/>
+      <c r="BR16" t="n">
+        <v/>
+      </c>
+      <c r="BS16" t="n">
+        <v/>
+      </c>
+      <c r="BT16" t="n">
+        <v/>
+      </c>
       <c r="BU16" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV16" t="inlineStr"/>
-      <c r="BW16" t="inlineStr"/>
+      <c r="BV16" t="n">
+        <v/>
+      </c>
+      <c r="BW16" t="n">
+        <v/>
+      </c>
       <c r="BX16" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY16" t="inlineStr"/>
-      <c r="BZ16" t="inlineStr"/>
-      <c r="CA16" t="inlineStr"/>
+      <c r="BY16" t="n">
+        <v/>
+      </c>
+      <c r="BZ16" t="n">
+        <v/>
+      </c>
+      <c r="CA16" t="n">
+        <v/>
+      </c>
       <c r="CB16" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CC16" t="inlineStr"/>
-      <c r="CD16" t="inlineStr"/>
-      <c r="CE16" t="inlineStr"/>
+      <c r="CC16" t="n">
+        <v/>
+      </c>
+      <c r="CD16" t="n">
+        <v/>
+      </c>
+      <c r="CE16" t="n">
+        <v/>
+      </c>
       <c r="CF16" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG16" t="inlineStr"/>
-      <c r="CH16" t="inlineStr"/>
-      <c r="CI16" t="inlineStr"/>
+      <c r="CG16" t="n">
+        <v/>
+      </c>
+      <c r="CH16" t="n">
+        <v/>
+      </c>
+      <c r="CI16" t="n">
+        <v/>
+      </c>
       <c r="CJ16" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CK16" t="inlineStr"/>
-      <c r="CL16" t="inlineStr"/>
-      <c r="CM16" t="inlineStr"/>
+      <c r="CK16" t="n">
+        <v/>
+      </c>
+      <c r="CL16" t="n">
+        <v/>
+      </c>
+      <c r="CM16" t="n">
+        <v/>
+      </c>
       <c r="CN16" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -28353,7 +29525,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -28361,7 +29533,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v/>
+      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
@@ -28531,105 +29705,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
+      <c r="AO17" t="n">
+        <v/>
+      </c>
+      <c r="AP17" t="n">
+        <v/>
+      </c>
+      <c r="AQ17" t="n">
+        <v/>
+      </c>
       <c r="AR17" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
+      <c r="AS17" t="n">
+        <v/>
+      </c>
+      <c r="AT17" t="n">
+        <v/>
+      </c>
+      <c r="AU17" t="n">
+        <v/>
+      </c>
       <c r="AV17" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
+      <c r="AW17" t="n">
+        <v/>
+      </c>
+      <c r="AX17" t="n">
+        <v/>
+      </c>
+      <c r="AY17" t="n">
+        <v/>
+      </c>
       <c r="AZ17" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
+      <c r="BA17" t="n">
+        <v/>
+      </c>
+      <c r="BB17" t="n">
+        <v/>
+      </c>
+      <c r="BC17" t="n">
+        <v/>
+      </c>
       <c r="BD17" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BE17" t="inlineStr"/>
-      <c r="BF17" t="inlineStr"/>
-      <c r="BG17" t="inlineStr"/>
+      <c r="BE17" t="n">
+        <v/>
+      </c>
+      <c r="BF17" t="n">
+        <v/>
+      </c>
+      <c r="BG17" t="n">
+        <v/>
+      </c>
       <c r="BH17" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI17" t="inlineStr"/>
-      <c r="BJ17" t="inlineStr"/>
-      <c r="BK17" t="inlineStr"/>
+      <c r="BI17" t="n">
+        <v/>
+      </c>
+      <c r="BJ17" t="n">
+        <v/>
+      </c>
+      <c r="BK17" t="n">
+        <v/>
+      </c>
       <c r="BL17" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM17" t="inlineStr"/>
-      <c r="BN17" t="inlineStr"/>
-      <c r="BO17" t="inlineStr"/>
+      <c r="BM17" t="n">
+        <v/>
+      </c>
+      <c r="BN17" t="n">
+        <v/>
+      </c>
+      <c r="BO17" t="n">
+        <v/>
+      </c>
       <c r="BP17" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ17" t="inlineStr"/>
-      <c r="BR17" t="inlineStr"/>
-      <c r="BS17" t="inlineStr"/>
-      <c r="BT17" t="inlineStr"/>
+      <c r="BQ17" t="n">
+        <v/>
+      </c>
+      <c r="BR17" t="n">
+        <v/>
+      </c>
+      <c r="BS17" t="n">
+        <v/>
+      </c>
+      <c r="BT17" t="n">
+        <v/>
+      </c>
       <c r="BU17" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV17" t="inlineStr"/>
-      <c r="BW17" t="inlineStr"/>
+      <c r="BV17" t="n">
+        <v/>
+      </c>
+      <c r="BW17" t="n">
+        <v/>
+      </c>
       <c r="BX17" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY17" t="inlineStr"/>
-      <c r="BZ17" t="inlineStr"/>
-      <c r="CA17" t="inlineStr"/>
-      <c r="CB17" t="inlineStr"/>
+      <c r="BY17" t="n">
+        <v/>
+      </c>
+      <c r="BZ17" t="n">
+        <v/>
+      </c>
+      <c r="CA17" t="n">
+        <v/>
+      </c>
+      <c r="CB17" t="n">
+        <v/>
+      </c>
       <c r="CC17" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD17" t="inlineStr"/>
-      <c r="CE17" t="inlineStr"/>
+      <c r="CD17" t="n">
+        <v/>
+      </c>
+      <c r="CE17" t="n">
+        <v/>
+      </c>
       <c r="CF17" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG17" t="inlineStr"/>
-      <c r="CH17" t="inlineStr"/>
-      <c r="CI17" t="inlineStr"/>
-      <c r="CJ17" t="inlineStr"/>
+      <c r="CG17" t="n">
+        <v/>
+      </c>
+      <c r="CH17" t="n">
+        <v/>
+      </c>
+      <c r="CI17" t="n">
+        <v/>
+      </c>
+      <c r="CJ17" t="n">
+        <v/>
+      </c>
       <c r="CK17" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL17" t="inlineStr"/>
-      <c r="CM17" t="inlineStr"/>
+      <c r="CL17" t="n">
+        <v/>
+      </c>
+      <c r="CM17" t="n">
+        <v/>
+      </c>
       <c r="CN17" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -28647,7 +29899,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -28655,7 +29907,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v/>
+      </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
@@ -28825,105 +30079,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
+      <c r="AO18" t="n">
+        <v/>
+      </c>
+      <c r="AP18" t="n">
+        <v/>
+      </c>
+      <c r="AQ18" t="n">
+        <v/>
+      </c>
       <c r="AR18" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
+      <c r="AS18" t="n">
+        <v/>
+      </c>
+      <c r="AT18" t="n">
+        <v/>
+      </c>
+      <c r="AU18" t="n">
+        <v/>
+      </c>
       <c r="AV18" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
+      <c r="AW18" t="n">
+        <v/>
+      </c>
+      <c r="AX18" t="n">
+        <v/>
+      </c>
+      <c r="AY18" t="n">
+        <v/>
+      </c>
       <c r="AZ18" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="inlineStr"/>
+      <c r="BA18" t="n">
+        <v/>
+      </c>
+      <c r="BB18" t="n">
+        <v/>
+      </c>
+      <c r="BC18" t="n">
+        <v/>
+      </c>
+      <c r="BD18" t="n">
+        <v/>
+      </c>
       <c r="BE18" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF18" t="inlineStr"/>
-      <c r="BG18" t="inlineStr"/>
+      <c r="BF18" t="n">
+        <v/>
+      </c>
+      <c r="BG18" t="n">
+        <v/>
+      </c>
       <c r="BH18" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI18" t="inlineStr"/>
-      <c r="BJ18" t="inlineStr"/>
-      <c r="BK18" t="inlineStr"/>
+      <c r="BI18" t="n">
+        <v/>
+      </c>
+      <c r="BJ18" t="n">
+        <v/>
+      </c>
+      <c r="BK18" t="n">
+        <v/>
+      </c>
       <c r="BL18" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM18" t="inlineStr"/>
-      <c r="BN18" t="inlineStr"/>
-      <c r="BO18" t="inlineStr"/>
-      <c r="BP18" t="inlineStr"/>
+      <c r="BM18" t="n">
+        <v/>
+      </c>
+      <c r="BN18" t="n">
+        <v/>
+      </c>
+      <c r="BO18" t="n">
+        <v/>
+      </c>
+      <c r="BP18" t="n">
+        <v/>
+      </c>
       <c r="BQ18" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR18" t="inlineStr"/>
-      <c r="BS18" t="inlineStr"/>
+      <c r="BR18" t="n">
+        <v/>
+      </c>
+      <c r="BS18" t="n">
+        <v/>
+      </c>
       <c r="BT18" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU18" t="inlineStr"/>
-      <c r="BV18" t="inlineStr"/>
-      <c r="BW18" t="inlineStr"/>
+      <c r="BU18" t="n">
+        <v/>
+      </c>
+      <c r="BV18" t="n">
+        <v/>
+      </c>
+      <c r="BW18" t="n">
+        <v/>
+      </c>
       <c r="BX18" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY18" t="inlineStr"/>
-      <c r="BZ18" t="inlineStr"/>
-      <c r="CA18" t="inlineStr"/>
-      <c r="CB18" t="inlineStr"/>
+      <c r="BY18" t="n">
+        <v/>
+      </c>
+      <c r="BZ18" t="n">
+        <v/>
+      </c>
+      <c r="CA18" t="n">
+        <v/>
+      </c>
+      <c r="CB18" t="n">
+        <v/>
+      </c>
       <c r="CC18" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD18" t="inlineStr"/>
-      <c r="CE18" t="inlineStr"/>
+      <c r="CD18" t="n">
+        <v/>
+      </c>
+      <c r="CE18" t="n">
+        <v/>
+      </c>
       <c r="CF18" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG18" t="inlineStr"/>
-      <c r="CH18" t="inlineStr"/>
-      <c r="CI18" t="inlineStr"/>
+      <c r="CG18" t="n">
+        <v/>
+      </c>
+      <c r="CH18" t="n">
+        <v/>
+      </c>
+      <c r="CI18" t="n">
+        <v/>
+      </c>
       <c r="CJ18" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CK18" t="inlineStr"/>
-      <c r="CL18" t="inlineStr"/>
-      <c r="CM18" t="inlineStr"/>
+      <c r="CK18" t="n">
+        <v/>
+      </c>
+      <c r="CL18" t="n">
+        <v/>
+      </c>
+      <c r="CM18" t="n">
+        <v/>
+      </c>
       <c r="CN18" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -28941,7 +30273,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -28949,7 +30281,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v/>
+      </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
@@ -29119,105 +30453,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
+      <c r="AO19" t="n">
+        <v/>
+      </c>
+      <c r="AP19" t="n">
+        <v/>
+      </c>
+      <c r="AQ19" t="n">
+        <v/>
+      </c>
       <c r="AR19" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr"/>
+      <c r="AS19" t="n">
+        <v/>
+      </c>
+      <c r="AT19" t="n">
+        <v/>
+      </c>
+      <c r="AU19" t="n">
+        <v/>
+      </c>
       <c r="AV19" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
+      <c r="AW19" t="n">
+        <v/>
+      </c>
+      <c r="AX19" t="n">
+        <v/>
+      </c>
+      <c r="AY19" t="n">
+        <v/>
+      </c>
+      <c r="AZ19" t="n">
+        <v/>
+      </c>
       <c r="BA19" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="inlineStr"/>
+      <c r="BB19" t="n">
+        <v/>
+      </c>
+      <c r="BC19" t="n">
+        <v/>
+      </c>
+      <c r="BD19" t="n">
+        <v/>
+      </c>
       <c r="BE19" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF19" t="inlineStr"/>
-      <c r="BG19" t="inlineStr"/>
-      <c r="BH19" t="inlineStr"/>
+      <c r="BF19" t="n">
+        <v/>
+      </c>
+      <c r="BG19" t="n">
+        <v/>
+      </c>
+      <c r="BH19" t="n">
+        <v/>
+      </c>
       <c r="BI19" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ19" t="inlineStr"/>
-      <c r="BK19" t="inlineStr"/>
-      <c r="BL19" t="inlineStr"/>
-      <c r="BM19" t="inlineStr"/>
-      <c r="BN19" t="inlineStr"/>
+      <c r="BJ19" t="n">
+        <v/>
+      </c>
+      <c r="BK19" t="n">
+        <v/>
+      </c>
+      <c r="BL19" t="n">
+        <v/>
+      </c>
+      <c r="BM19" t="n">
+        <v/>
+      </c>
+      <c r="BN19" t="n">
+        <v/>
+      </c>
       <c r="BO19" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BP19" t="inlineStr"/>
+      <c r="BP19" t="n">
+        <v/>
+      </c>
       <c r="BQ19" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR19" t="inlineStr"/>
-      <c r="BS19" t="inlineStr"/>
-      <c r="BT19" t="inlineStr"/>
+      <c r="BR19" t="n">
+        <v/>
+      </c>
+      <c r="BS19" t="n">
+        <v/>
+      </c>
+      <c r="BT19" t="n">
+        <v/>
+      </c>
       <c r="BU19" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV19" t="inlineStr"/>
-      <c r="BW19" t="inlineStr"/>
-      <c r="BX19" t="inlineStr"/>
+      <c r="BV19" t="n">
+        <v/>
+      </c>
+      <c r="BW19" t="n">
+        <v/>
+      </c>
+      <c r="BX19" t="n">
+        <v/>
+      </c>
       <c r="BY19" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ19" t="inlineStr"/>
-      <c r="CA19" t="inlineStr"/>
-      <c r="CB19" t="inlineStr"/>
+      <c r="BZ19" t="n">
+        <v/>
+      </c>
+      <c r="CA19" t="n">
+        <v/>
+      </c>
+      <c r="CB19" t="n">
+        <v/>
+      </c>
       <c r="CC19" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD19" t="inlineStr"/>
-      <c r="CE19" t="inlineStr"/>
+      <c r="CD19" t="n">
+        <v/>
+      </c>
+      <c r="CE19" t="n">
+        <v/>
+      </c>
       <c r="CF19" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG19" t="inlineStr"/>
-      <c r="CH19" t="inlineStr"/>
-      <c r="CI19" t="inlineStr"/>
-      <c r="CJ19" t="inlineStr"/>
+      <c r="CG19" t="n">
+        <v/>
+      </c>
+      <c r="CH19" t="n">
+        <v/>
+      </c>
+      <c r="CI19" t="n">
+        <v/>
+      </c>
+      <c r="CJ19" t="n">
+        <v/>
+      </c>
       <c r="CK19" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL19" t="inlineStr"/>
-      <c r="CM19" t="inlineStr"/>
+      <c r="CL19" t="n">
+        <v/>
+      </c>
+      <c r="CM19" t="n">
+        <v/>
+      </c>
       <c r="CN19" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -29235,7 +30647,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -29243,7 +30655,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v/>
+      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -29408,17 +30822,29 @@
           <t>No plans to adopt</t>
         </is>
       </c>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
+      <c r="AN20" t="n">
+        <v/>
+      </c>
+      <c r="AO20" t="n">
+        <v/>
+      </c>
+      <c r="AP20" t="n">
+        <v/>
+      </c>
       <c r="AQ20" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="inlineStr"/>
+      <c r="AR20" t="n">
+        <v/>
+      </c>
+      <c r="AS20" t="n">
+        <v/>
+      </c>
+      <c r="AT20" t="n">
+        <v/>
+      </c>
       <c r="AU20" t="inlineStr">
         <is>
           <t>Unsure</t>
@@ -29429,89 +30855,155 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
+      <c r="AW20" t="n">
+        <v/>
+      </c>
+      <c r="AX20" t="n">
+        <v/>
+      </c>
+      <c r="AY20" t="n">
+        <v/>
+      </c>
+      <c r="AZ20" t="n">
+        <v/>
+      </c>
       <c r="BA20" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="inlineStr"/>
+      <c r="BB20" t="n">
+        <v/>
+      </c>
+      <c r="BC20" t="n">
+        <v/>
+      </c>
+      <c r="BD20" t="n">
+        <v/>
+      </c>
       <c r="BE20" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF20" t="inlineStr"/>
-      <c r="BG20" t="inlineStr"/>
-      <c r="BH20" t="inlineStr"/>
+      <c r="BF20" t="n">
+        <v/>
+      </c>
+      <c r="BG20" t="n">
+        <v/>
+      </c>
+      <c r="BH20" t="n">
+        <v/>
+      </c>
       <c r="BI20" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ20" t="inlineStr"/>
-      <c r="BK20" t="inlineStr"/>
-      <c r="BL20" t="inlineStr"/>
-      <c r="BM20" t="inlineStr"/>
-      <c r="BN20" t="inlineStr"/>
+      <c r="BJ20" t="n">
+        <v/>
+      </c>
+      <c r="BK20" t="n">
+        <v/>
+      </c>
+      <c r="BL20" t="n">
+        <v/>
+      </c>
+      <c r="BM20" t="n">
+        <v/>
+      </c>
+      <c r="BN20" t="n">
+        <v/>
+      </c>
       <c r="BO20" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BP20" t="inlineStr"/>
+      <c r="BP20" t="n">
+        <v/>
+      </c>
       <c r="BQ20" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR20" t="inlineStr"/>
-      <c r="BS20" t="inlineStr"/>
-      <c r="BT20" t="inlineStr"/>
-      <c r="BU20" t="inlineStr"/>
-      <c r="BV20" t="inlineStr"/>
+      <c r="BR20" t="n">
+        <v/>
+      </c>
+      <c r="BS20" t="n">
+        <v/>
+      </c>
+      <c r="BT20" t="n">
+        <v/>
+      </c>
+      <c r="BU20" t="n">
+        <v/>
+      </c>
+      <c r="BV20" t="n">
+        <v/>
+      </c>
       <c r="BW20" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BX20" t="inlineStr"/>
+      <c r="BX20" t="n">
+        <v/>
+      </c>
       <c r="BY20" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ20" t="inlineStr"/>
-      <c r="CA20" t="inlineStr"/>
-      <c r="CB20" t="inlineStr"/>
+      <c r="BZ20" t="n">
+        <v/>
+      </c>
+      <c r="CA20" t="n">
+        <v/>
+      </c>
+      <c r="CB20" t="n">
+        <v/>
+      </c>
       <c r="CC20" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD20" t="inlineStr"/>
-      <c r="CE20" t="inlineStr"/>
-      <c r="CF20" t="inlineStr"/>
+      <c r="CD20" t="n">
+        <v/>
+      </c>
+      <c r="CE20" t="n">
+        <v/>
+      </c>
+      <c r="CF20" t="n">
+        <v/>
+      </c>
       <c r="CG20" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH20" t="inlineStr"/>
-      <c r="CI20" t="inlineStr"/>
-      <c r="CJ20" t="inlineStr"/>
+      <c r="CH20" t="n">
+        <v/>
+      </c>
+      <c r="CI20" t="n">
+        <v/>
+      </c>
+      <c r="CJ20" t="n">
+        <v/>
+      </c>
       <c r="CK20" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL20" t="inlineStr"/>
-      <c r="CM20" t="inlineStr"/>
+      <c r="CL20" t="n">
+        <v/>
+      </c>
+      <c r="CM20" t="n">
+        <v/>
+      </c>
       <c r="CN20" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -29529,7 +31021,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -29537,7 +31029,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v/>
+      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
@@ -29702,110 +31196,188 @@
           <t>Already in place</t>
         </is>
       </c>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
+      <c r="AN21" t="n">
+        <v/>
+      </c>
+      <c r="AO21" t="n">
+        <v/>
+      </c>
+      <c r="AP21" t="n">
+        <v/>
+      </c>
       <c r="AQ21" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
-      <c r="AT21" t="inlineStr"/>
+      <c r="AR21" t="n">
+        <v/>
+      </c>
+      <c r="AS21" t="n">
+        <v/>
+      </c>
+      <c r="AT21" t="n">
+        <v/>
+      </c>
       <c r="AU21" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AV21" t="inlineStr"/>
-      <c r="AW21" t="inlineStr"/>
-      <c r="AX21" t="inlineStr"/>
+      <c r="AV21" t="n">
+        <v/>
+      </c>
+      <c r="AW21" t="n">
+        <v/>
+      </c>
+      <c r="AX21" t="n">
+        <v/>
+      </c>
       <c r="AY21" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AZ21" t="inlineStr"/>
+      <c r="AZ21" t="n">
+        <v/>
+      </c>
       <c r="BA21" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB21" t="inlineStr"/>
-      <c r="BC21" t="inlineStr"/>
-      <c r="BD21" t="inlineStr"/>
+      <c r="BB21" t="n">
+        <v/>
+      </c>
+      <c r="BC21" t="n">
+        <v/>
+      </c>
+      <c r="BD21" t="n">
+        <v/>
+      </c>
       <c r="BE21" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF21" t="inlineStr"/>
-      <c r="BG21" t="inlineStr"/>
-      <c r="BH21" t="inlineStr"/>
+      <c r="BF21" t="n">
+        <v/>
+      </c>
+      <c r="BG21" t="n">
+        <v/>
+      </c>
+      <c r="BH21" t="n">
+        <v/>
+      </c>
       <c r="BI21" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ21" t="inlineStr"/>
-      <c r="BK21" t="inlineStr"/>
+      <c r="BJ21" t="n">
+        <v/>
+      </c>
+      <c r="BK21" t="n">
+        <v/>
+      </c>
       <c r="BL21" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM21" t="inlineStr"/>
-      <c r="BN21" t="inlineStr"/>
-      <c r="BO21" t="inlineStr"/>
-      <c r="BP21" t="inlineStr"/>
+      <c r="BM21" t="n">
+        <v/>
+      </c>
+      <c r="BN21" t="n">
+        <v/>
+      </c>
+      <c r="BO21" t="n">
+        <v/>
+      </c>
+      <c r="BP21" t="n">
+        <v/>
+      </c>
       <c r="BQ21" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR21" t="inlineStr"/>
-      <c r="BS21" t="inlineStr"/>
-      <c r="BT21" t="inlineStr"/>
+      <c r="BR21" t="n">
+        <v/>
+      </c>
+      <c r="BS21" t="n">
+        <v/>
+      </c>
+      <c r="BT21" t="n">
+        <v/>
+      </c>
       <c r="BU21" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV21" t="inlineStr"/>
-      <c r="BW21" t="inlineStr"/>
-      <c r="BX21" t="inlineStr"/>
+      <c r="BV21" t="n">
+        <v/>
+      </c>
+      <c r="BW21" t="n">
+        <v/>
+      </c>
+      <c r="BX21" t="n">
+        <v/>
+      </c>
       <c r="BY21" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ21" t="inlineStr"/>
-      <c r="CA21" t="inlineStr"/>
-      <c r="CB21" t="inlineStr"/>
+      <c r="BZ21" t="n">
+        <v/>
+      </c>
+      <c r="CA21" t="n">
+        <v/>
+      </c>
+      <c r="CB21" t="n">
+        <v/>
+      </c>
       <c r="CC21" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD21" t="inlineStr"/>
-      <c r="CE21" t="inlineStr"/>
-      <c r="CF21" t="inlineStr"/>
+      <c r="CD21" t="n">
+        <v/>
+      </c>
+      <c r="CE21" t="n">
+        <v/>
+      </c>
+      <c r="CF21" t="n">
+        <v/>
+      </c>
       <c r="CG21" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH21" t="inlineStr"/>
-      <c r="CI21" t="inlineStr"/>
+      <c r="CH21" t="n">
+        <v/>
+      </c>
+      <c r="CI21" t="n">
+        <v/>
+      </c>
       <c r="CJ21" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CK21" t="inlineStr"/>
-      <c r="CL21" t="inlineStr"/>
-      <c r="CM21" t="inlineStr"/>
+      <c r="CK21" t="n">
+        <v/>
+      </c>
+      <c r="CL21" t="n">
+        <v/>
+      </c>
+      <c r="CM21" t="n">
+        <v/>
+      </c>
       <c r="CN21" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -29823,7 +31395,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -29831,7 +31403,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v/>
+      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
@@ -30001,60 +31575,108 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
+      <c r="AO22" t="n">
+        <v/>
+      </c>
+      <c r="AP22" t="n">
+        <v/>
+      </c>
+      <c r="AQ22" t="n">
+        <v/>
+      </c>
       <c r="AR22" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS22" t="inlineStr"/>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="inlineStr"/>
+      <c r="AS22" t="n">
+        <v/>
+      </c>
+      <c r="AT22" t="n">
+        <v/>
+      </c>
+      <c r="AU22" t="n">
+        <v/>
+      </c>
       <c r="AV22" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
+      <c r="AW22" t="n">
+        <v/>
+      </c>
+      <c r="AX22" t="n">
+        <v/>
+      </c>
+      <c r="AY22" t="n">
+        <v/>
+      </c>
       <c r="AZ22" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA22" t="inlineStr"/>
-      <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr"/>
-      <c r="BD22" t="inlineStr"/>
+      <c r="BA22" t="n">
+        <v/>
+      </c>
+      <c r="BB22" t="n">
+        <v/>
+      </c>
+      <c r="BC22" t="n">
+        <v/>
+      </c>
+      <c r="BD22" t="n">
+        <v/>
+      </c>
       <c r="BE22" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF22" t="inlineStr"/>
-      <c r="BG22" t="inlineStr"/>
+      <c r="BF22" t="n">
+        <v/>
+      </c>
+      <c r="BG22" t="n">
+        <v/>
+      </c>
       <c r="BH22" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI22" t="inlineStr"/>
-      <c r="BJ22" t="inlineStr"/>
-      <c r="BK22" t="inlineStr"/>
-      <c r="BL22" t="inlineStr"/>
-      <c r="BM22" t="inlineStr"/>
-      <c r="BN22" t="inlineStr"/>
+      <c r="BI22" t="n">
+        <v/>
+      </c>
+      <c r="BJ22" t="n">
+        <v/>
+      </c>
+      <c r="BK22" t="n">
+        <v/>
+      </c>
+      <c r="BL22" t="n">
+        <v/>
+      </c>
+      <c r="BM22" t="n">
+        <v/>
+      </c>
+      <c r="BN22" t="n">
+        <v/>
+      </c>
       <c r="BO22" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BP22" t="inlineStr"/>
-      <c r="BQ22" t="inlineStr"/>
-      <c r="BR22" t="inlineStr"/>
+      <c r="BP22" t="n">
+        <v/>
+      </c>
+      <c r="BQ22" t="n">
+        <v/>
+      </c>
+      <c r="BR22" t="n">
+        <v/>
+      </c>
       <c r="BS22" t="inlineStr">
         <is>
           <t>Unsure</t>
@@ -30065,8 +31687,12 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU22" t="inlineStr"/>
-      <c r="BV22" t="inlineStr"/>
+      <c r="BU22" t="n">
+        <v/>
+      </c>
+      <c r="BV22" t="n">
+        <v/>
+      </c>
       <c r="BW22" t="inlineStr">
         <is>
           <t>Unsure</t>
@@ -30077,33 +31703,57 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY22" t="inlineStr"/>
-      <c r="BZ22" t="inlineStr"/>
-      <c r="CA22" t="inlineStr"/>
-      <c r="CB22" t="inlineStr"/>
+      <c r="BY22" t="n">
+        <v/>
+      </c>
+      <c r="BZ22" t="n">
+        <v/>
+      </c>
+      <c r="CA22" t="n">
+        <v/>
+      </c>
+      <c r="CB22" t="n">
+        <v/>
+      </c>
       <c r="CC22" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD22" t="inlineStr"/>
-      <c r="CE22" t="inlineStr"/>
-      <c r="CF22" t="inlineStr"/>
-      <c r="CG22" t="inlineStr"/>
-      <c r="CH22" t="inlineStr"/>
+      <c r="CD22" t="n">
+        <v/>
+      </c>
+      <c r="CE22" t="n">
+        <v/>
+      </c>
+      <c r="CF22" t="n">
+        <v/>
+      </c>
+      <c r="CG22" t="n">
+        <v/>
+      </c>
+      <c r="CH22" t="n">
+        <v/>
+      </c>
       <c r="CI22" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="CJ22" t="inlineStr"/>
+      <c r="CJ22" t="n">
+        <v/>
+      </c>
       <c r="CK22" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL22" t="inlineStr"/>
-      <c r="CM22" t="inlineStr"/>
+      <c r="CL22" t="n">
+        <v/>
+      </c>
+      <c r="CM22" t="n">
+        <v/>
+      </c>
       <c r="CN22" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -30121,7 +31771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -30129,7 +31779,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v/>
+      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -30299,105 +31951,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
+      <c r="AO23" t="n">
+        <v/>
+      </c>
+      <c r="AP23" t="n">
+        <v/>
+      </c>
+      <c r="AQ23" t="n">
+        <v/>
+      </c>
       <c r="AR23" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS23" t="inlineStr"/>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr"/>
+      <c r="AS23" t="n">
+        <v/>
+      </c>
+      <c r="AT23" t="n">
+        <v/>
+      </c>
+      <c r="AU23" t="n">
+        <v/>
+      </c>
       <c r="AV23" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW23" t="inlineStr"/>
-      <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr"/>
-      <c r="BA23" t="inlineStr"/>
-      <c r="BB23" t="inlineStr"/>
+      <c r="AW23" t="n">
+        <v/>
+      </c>
+      <c r="AX23" t="n">
+        <v/>
+      </c>
+      <c r="AY23" t="n">
+        <v/>
+      </c>
+      <c r="AZ23" t="n">
+        <v/>
+      </c>
+      <c r="BA23" t="n">
+        <v/>
+      </c>
+      <c r="BB23" t="n">
+        <v/>
+      </c>
       <c r="BC23" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BD23" t="inlineStr"/>
+      <c r="BD23" t="n">
+        <v/>
+      </c>
       <c r="BE23" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF23" t="inlineStr"/>
-      <c r="BG23" t="inlineStr"/>
-      <c r="BH23" t="inlineStr"/>
+      <c r="BF23" t="n">
+        <v/>
+      </c>
+      <c r="BG23" t="n">
+        <v/>
+      </c>
+      <c r="BH23" t="n">
+        <v/>
+      </c>
       <c r="BI23" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ23" t="inlineStr"/>
-      <c r="BK23" t="inlineStr"/>
-      <c r="BL23" t="inlineStr"/>
+      <c r="BJ23" t="n">
+        <v/>
+      </c>
+      <c r="BK23" t="n">
+        <v/>
+      </c>
+      <c r="BL23" t="n">
+        <v/>
+      </c>
       <c r="BM23" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BN23" t="inlineStr"/>
-      <c r="BO23" t="inlineStr"/>
-      <c r="BP23" t="inlineStr"/>
+      <c r="BN23" t="n">
+        <v/>
+      </c>
+      <c r="BO23" t="n">
+        <v/>
+      </c>
+      <c r="BP23" t="n">
+        <v/>
+      </c>
       <c r="BQ23" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR23" t="inlineStr"/>
-      <c r="BS23" t="inlineStr"/>
-      <c r="BT23" t="inlineStr"/>
-      <c r="BU23" t="inlineStr"/>
-      <c r="BV23" t="inlineStr"/>
+      <c r="BR23" t="n">
+        <v/>
+      </c>
+      <c r="BS23" t="n">
+        <v/>
+      </c>
+      <c r="BT23" t="n">
+        <v/>
+      </c>
+      <c r="BU23" t="n">
+        <v/>
+      </c>
+      <c r="BV23" t="n">
+        <v/>
+      </c>
       <c r="BW23" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BX23" t="inlineStr"/>
+      <c r="BX23" t="n">
+        <v/>
+      </c>
       <c r="BY23" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ23" t="inlineStr"/>
-      <c r="CA23" t="inlineStr"/>
-      <c r="CB23" t="inlineStr"/>
+      <c r="BZ23" t="n">
+        <v/>
+      </c>
+      <c r="CA23" t="n">
+        <v/>
+      </c>
+      <c r="CB23" t="n">
+        <v/>
+      </c>
       <c r="CC23" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD23" t="inlineStr"/>
-      <c r="CE23" t="inlineStr"/>
-      <c r="CF23" t="inlineStr"/>
+      <c r="CD23" t="n">
+        <v/>
+      </c>
+      <c r="CE23" t="n">
+        <v/>
+      </c>
+      <c r="CF23" t="n">
+        <v/>
+      </c>
       <c r="CG23" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH23" t="inlineStr"/>
-      <c r="CI23" t="inlineStr"/>
-      <c r="CJ23" t="inlineStr"/>
+      <c r="CH23" t="n">
+        <v/>
+      </c>
+      <c r="CI23" t="n">
+        <v/>
+      </c>
+      <c r="CJ23" t="n">
+        <v/>
+      </c>
       <c r="CK23" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL23" t="inlineStr"/>
-      <c r="CM23" t="inlineStr"/>
+      <c r="CL23" t="n">
+        <v/>
+      </c>
+      <c r="CM23" t="n">
+        <v/>
+      </c>
       <c r="CN23" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -30415,7 +32145,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -30423,7 +32153,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v/>
+      </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
@@ -30593,109 +32325,185 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
+      <c r="AO24" t="n">
+        <v/>
+      </c>
+      <c r="AP24" t="n">
+        <v/>
+      </c>
+      <c r="AQ24" t="n">
+        <v/>
+      </c>
       <c r="AR24" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS24" t="inlineStr"/>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr"/>
+      <c r="AS24" t="n">
+        <v/>
+      </c>
+      <c r="AT24" t="n">
+        <v/>
+      </c>
+      <c r="AU24" t="n">
+        <v/>
+      </c>
       <c r="AV24" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW24" t="inlineStr"/>
-      <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
-      <c r="AZ24" t="inlineStr"/>
-      <c r="BA24" t="inlineStr"/>
+      <c r="AW24" t="n">
+        <v/>
+      </c>
+      <c r="AX24" t="n">
+        <v/>
+      </c>
+      <c r="AY24" t="n">
+        <v/>
+      </c>
+      <c r="AZ24" t="n">
+        <v/>
+      </c>
+      <c r="BA24" t="n">
+        <v/>
+      </c>
       <c r="BB24" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BC24" t="inlineStr"/>
-      <c r="BD24" t="inlineStr"/>
-      <c r="BE24" t="inlineStr"/>
+      <c r="BC24" t="n">
+        <v/>
+      </c>
+      <c r="BD24" t="n">
+        <v/>
+      </c>
+      <c r="BE24" t="n">
+        <v/>
+      </c>
       <c r="BF24" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BG24" t="inlineStr"/>
-      <c r="BH24" t="inlineStr"/>
-      <c r="BI24" t="inlineStr"/>
+      <c r="BG24" t="n">
+        <v/>
+      </c>
+      <c r="BH24" t="n">
+        <v/>
+      </c>
+      <c r="BI24" t="n">
+        <v/>
+      </c>
       <c r="BJ24" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BK24" t="inlineStr"/>
-      <c r="BL24" t="inlineStr"/>
+      <c r="BK24" t="n">
+        <v/>
+      </c>
+      <c r="BL24" t="n">
+        <v/>
+      </c>
       <c r="BM24" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BN24" t="inlineStr"/>
-      <c r="BO24" t="inlineStr"/>
-      <c r="BP24" t="inlineStr"/>
-      <c r="BQ24" t="inlineStr"/>
+      <c r="BN24" t="n">
+        <v/>
+      </c>
+      <c r="BO24" t="n">
+        <v/>
+      </c>
+      <c r="BP24" t="n">
+        <v/>
+      </c>
+      <c r="BQ24" t="n">
+        <v/>
+      </c>
       <c r="BR24" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BS24" t="inlineStr"/>
-      <c r="BT24" t="inlineStr"/>
+      <c r="BS24" t="n">
+        <v/>
+      </c>
+      <c r="BT24" t="n">
+        <v/>
+      </c>
       <c r="BU24" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV24" t="inlineStr"/>
-      <c r="BW24" t="inlineStr"/>
-      <c r="BX24" t="inlineStr"/>
-      <c r="BY24" t="inlineStr"/>
+      <c r="BV24" t="n">
+        <v/>
+      </c>
+      <c r="BW24" t="n">
+        <v/>
+      </c>
+      <c r="BX24" t="n">
+        <v/>
+      </c>
+      <c r="BY24" t="n">
+        <v/>
+      </c>
       <c r="BZ24" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="CA24" t="inlineStr"/>
+      <c r="CA24" t="n">
+        <v/>
+      </c>
       <c r="CB24" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CC24" t="inlineStr"/>
+      <c r="CC24" t="n">
+        <v/>
+      </c>
       <c r="CD24" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="CE24" t="inlineStr"/>
+      <c r="CE24" t="n">
+        <v/>
+      </c>
       <c r="CF24" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG24" t="inlineStr"/>
-      <c r="CH24" t="inlineStr"/>
-      <c r="CI24" t="inlineStr"/>
-      <c r="CJ24" t="inlineStr"/>
+      <c r="CG24" t="n">
+        <v/>
+      </c>
+      <c r="CH24" t="n">
+        <v/>
+      </c>
+      <c r="CI24" t="n">
+        <v/>
+      </c>
+      <c r="CJ24" t="n">
+        <v/>
+      </c>
       <c r="CK24" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL24" t="inlineStr"/>
-      <c r="CM24" t="inlineStr"/>
+      <c r="CL24" t="n">
+        <v/>
+      </c>
+      <c r="CM24" t="n">
+        <v/>
+      </c>
       <c r="CN24" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>

--- a/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q1_Export.xlsx
+++ b/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q1_Export.xlsx
@@ -23895,7 +23895,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -24269,7 +24269,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24643,7 +24643,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -25025,7 +25025,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -25401,7 +25401,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25775,7 +25775,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -26149,7 +26149,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -26905,7 +26905,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -27279,7 +27279,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -27653,7 +27653,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -28029,7 +28029,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -28403,7 +28403,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -28777,7 +28777,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -29151,7 +29151,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -29525,7 +29525,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -29899,7 +29899,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -30273,7 +30273,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -30647,7 +30647,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -31021,7 +31021,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -31395,7 +31395,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -31771,7 +31771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -32145,7 +32145,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">

--- a/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q1_Export.xlsx
+++ b/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q1_Export.xlsx
@@ -23895,7 +23895,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -24269,7 +24269,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24643,7 +24643,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -25025,7 +25025,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -25401,7 +25401,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25775,7 +25775,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -26149,7 +26149,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -26905,7 +26905,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -27279,7 +27279,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -27653,7 +27653,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -28029,7 +28029,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -28403,7 +28403,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -28777,7 +28777,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -29151,7 +29151,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -29525,7 +29525,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -29899,7 +29899,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -30273,7 +30273,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -30647,7 +30647,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -31021,7 +31021,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -31395,7 +31395,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -31771,7 +31771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -32145,7 +32145,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">

--- a/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q1_Export.xlsx
+++ b/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q1_Export.xlsx
@@ -23895,7 +23895,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -24269,7 +24269,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24643,7 +24643,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -25025,7 +25025,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -25401,7 +25401,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25775,7 +25775,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -26149,7 +26149,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -26905,7 +26905,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -27279,7 +27279,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -27653,7 +27653,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -28029,7 +28029,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -28403,7 +28403,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -28777,7 +28777,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -29151,7 +29151,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -29525,7 +29525,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -29899,7 +29899,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -30273,7 +30273,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -30647,7 +30647,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -31021,7 +31021,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -31395,7 +31395,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -31771,7 +31771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -32145,7 +32145,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">

--- a/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q1_Export.xlsx
+++ b/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q1_Export.xlsx
@@ -23895,7 +23895,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -24269,7 +24269,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24643,7 +24643,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -25025,7 +25025,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -25401,7 +25401,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25775,7 +25775,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -26149,7 +26149,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -26905,7 +26905,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -27279,7 +27279,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -27653,7 +27653,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -28029,7 +28029,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -28403,7 +28403,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -28777,7 +28777,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -29151,7 +29151,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -29525,7 +29525,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -29899,7 +29899,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -30273,7 +30273,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -30647,7 +30647,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -31021,7 +31021,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -31395,7 +31395,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -31771,7 +31771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -32145,7 +32145,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
